--- a/hadoop/src/main/resources/document/systemConfig.xlsx
+++ b/hadoop/src/main/resources/document/systemConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="99">
   <si>
     <t>Hadoop</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Spark Standalone</t>
     </r>
     <r>
@@ -862,6 +868,429 @@
         <charset val="134"/>
       </rPr>
       <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>生产集群</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lume</t>
+    </r>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uperset</t>
+    </r>
+  </si>
+  <si>
+    <t>DataX</t>
+  </si>
+  <si>
+    <t>hive</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>测试集群服务器规划</t>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>HDFS</t>
+  </si>
+  <si>
+    <t>NameNode</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>DataNode</t>
+  </si>
+  <si>
+    <t>SecondaryNameNode</t>
+  </si>
+  <si>
+    <t>Yarn</t>
+  </si>
+  <si>
+    <t>NodeManager</t>
+  </si>
+  <si>
+    <t>Resourcemanager</t>
+  </si>
+  <si>
+    <t>Zookeeper</t>
+  </si>
+  <si>
+    <r>
+      <t>Zookeeper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lume</t>
+    </r>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <r>
+      <t>Flume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（消费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kafka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志）</t>
+    </r>
+  </si>
+  <si>
+    <t>Flume</t>
+  </si>
+  <si>
+    <r>
+      <t>Flume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（消费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kafka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务）</t>
+    </r>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
+    <r>
+      <t>My</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>park</t>
+    </r>
+  </si>
+  <si>
+    <t>DolphinScheduler</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>piApplication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lertServer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>asterServer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>orkerServer</t>
+    </r>
+  </si>
+  <si>
+    <t>LoggerServer</t>
+  </si>
+  <si>
+    <t>Superset</t>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数总计</t>
     </r>
   </si>
 </sst>
@@ -876,13 +1305,6 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,13 +1339,27 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1069,12 +1505,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1303,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1450,6 +1880,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1578,141 +2021,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1727,37 +2170,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1766,7 +2209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1775,44 +2218,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2125,17 +2613,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K46"/>
+  <dimension ref="B2:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.05" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="18.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="35.775" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -2460,7 +2948,7 @@
       </c>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" customHeight="1" spans="2:11">
+    <row r="19" ht="22.8" customHeight="1" spans="2:11">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6" t="s">
@@ -2535,7 +3023,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="34"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="27" customHeight="1" spans="4:6">
       <c r="D27" s="6" t="s">
@@ -2562,7 +3050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="4:6">
+    <row r="29" ht="22.8" customHeight="1" spans="4:6">
       <c r="D29" s="22" t="s">
         <v>29</v>
       </c>
@@ -2683,7 +3171,7 @@
       <c r="F44" s="32"/>
     </row>
     <row r="45" customHeight="1" spans="4:6">
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="32" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="32"/>
@@ -2696,8 +3184,599 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
     </row>
+    <row r="48" customHeight="1" spans="6:6">
+      <c r="F48" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="4:13">
+      <c r="D49" s="34">
+        <v>1</v>
+      </c>
+      <c r="E49" s="34">
+        <v>2</v>
+      </c>
+      <c r="F49" s="34">
+        <v>3</v>
+      </c>
+      <c r="G49" s="34">
+        <v>4</v>
+      </c>
+      <c r="H49" s="34">
+        <v>5</v>
+      </c>
+      <c r="I49" s="34">
+        <v>6</v>
+      </c>
+      <c r="J49" s="34">
+        <v>7</v>
+      </c>
+      <c r="K49" s="34">
+        <v>8</v>
+      </c>
+      <c r="L49" s="34">
+        <v>9</v>
+      </c>
+      <c r="M49" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="4:13">
+      <c r="D50" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="4:13">
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="4:13">
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" customHeight="1" spans="4:13">
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="4:13">
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="4:13">
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="4:13">
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+    </row>
+    <row r="57" customHeight="1" spans="4:13">
+      <c r="D57" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+    </row>
+    <row r="58" customHeight="1" spans="4:13">
+      <c r="D58" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+    </row>
+    <row r="59" customHeight="1" spans="4:13">
+      <c r="D59" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+    </row>
+    <row r="60" customHeight="1" spans="4:13">
+      <c r="D60" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+    </row>
+    <row r="61" customHeight="1" spans="4:13">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+    </row>
+    <row r="62" ht="37" customHeight="1" spans="6:6">
+      <c r="F62" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="4:8">
+      <c r="D63" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="4:8">
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" ht="29" customHeight="1" spans="4:8">
+      <c r="D65" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+    </row>
+    <row r="66" ht="28" customHeight="1" spans="4:8">
+      <c r="D66" s="45"/>
+      <c r="E66" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="1" spans="4:8">
+      <c r="D67" s="45"/>
+      <c r="E67" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" ht="24" customHeight="1" spans="4:8">
+      <c r="D68" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" ht="28" customHeight="1" spans="4:8">
+      <c r="D69" s="45"/>
+      <c r="E69" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="47"/>
+      <c r="G69" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="47"/>
+    </row>
+    <row r="70" ht="27" customHeight="1" spans="4:8">
+      <c r="D70" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" ht="28" customHeight="1" spans="4:8">
+      <c r="D71" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="47"/>
+    </row>
+    <row r="72" ht="33" customHeight="1" spans="4:8">
+      <c r="D72" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1" spans="4:8">
+      <c r="D73" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="4:8">
+      <c r="D74" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1" spans="4:8">
+      <c r="D75" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" ht="27" customHeight="1" spans="4:8">
+      <c r="D76" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+    </row>
+    <row r="77" ht="27" customHeight="1" spans="4:8">
+      <c r="D77" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" ht="27" customHeight="1" spans="4:8">
+      <c r="D78" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" ht="24" customHeight="1" spans="4:8">
+      <c r="D79" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+    </row>
+    <row r="80" ht="25" customHeight="1" spans="4:8">
+      <c r="D80" s="45"/>
+      <c r="E80" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+    </row>
+    <row r="81" ht="26" customHeight="1" spans="4:8">
+      <c r="D81" s="45"/>
+      <c r="E81" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+    </row>
+    <row r="82" ht="26" customHeight="1" spans="4:8">
+      <c r="D82" s="45"/>
+      <c r="E82" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" ht="25" customHeight="1" spans="4:8">
+      <c r="D83" s="45"/>
+      <c r="E83" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" ht="27" customHeight="1" spans="4:8">
+      <c r="D84" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+    </row>
+    <row r="85" customHeight="1" spans="4:8">
+      <c r="D85" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36">
+        <v>16</v>
+      </c>
+      <c r="G85" s="36">
+        <v>11</v>
+      </c>
+      <c r="H85" s="36">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D45:F45"/>
@@ -2707,6 +3786,11 @@
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
